--- a/仕様書/キャラステータス.xlsx
+++ b/仕様書/キャラステータス.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Documents\学校\2年\サークル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\source\repos\SLG\Resource\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="3">
-        <f>C12+D12+E12+F12+G12+H12+I12+J12</f>
+        <f t="shared" ref="L12:L19" si="2">C12+D12+E12+F12+G12+H12+I12+J12</f>
         <v>7</v>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="36">
-        <f>C13+D13+E13+F13+G13+H13+I13+J13</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="3">
-        <f>C14+D14+E14+F14+G14+H14+I14+J14</f>
+        <f t="shared" si="2"/>
         <v>6.8</v>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="36">
-        <f>C15+D15+E15+F15+G15+H15+I15+J15</f>
+        <f t="shared" si="2"/>
         <v>7.0000000000000009</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
-        <f>C16+D16+E16+F16+G16+H16+I16+J16</f>
+        <f t="shared" si="2"/>
         <v>6.8</v>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6">
-        <f>C17+D17+E17+F17+G17+H17+I17+J17</f>
+        <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="36">
-        <f>C18+D18+E18+F18+G18+H18+I18+J18</f>
+        <f t="shared" si="2"/>
         <v>7.0000000000000009</v>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6">
-        <f>C19+D19+E19+F19+G19+H19+I19+J19</f>
+        <f t="shared" si="2"/>
         <v>7.2000000000000011</v>
       </c>
     </row>
@@ -1825,27 +1825,27 @@
         <v>55</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:I22" si="2">D2+(D12*$B$21)</f>
+        <f t="shared" ref="D22:I22" si="3">D2+(D12*$B$21)</f>
         <v>24</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="J22" s="2"/>
@@ -1864,23 +1864,23 @@
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17">
-        <f t="shared" ref="C23:I23" si="3">C3+(C13*$B$21)</f>
+        <f t="shared" ref="C23:I23" si="4">C3+(C13*$B$21)</f>
         <v>48</v>
       </c>
       <c r="D23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="E23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H23" s="17">
@@ -1888,7 +1888,7 @@
         <v>27</v>
       </c>
       <c r="I23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J23" s="17"/>
@@ -1907,40 +1907,40 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:I24" si="4">C4+(C14*$B$21)</f>
+        <f t="shared" ref="C24:I24" si="5">C4+(C14*$B$21)</f>
         <v>32</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
-        <f t="shared" ref="K23:K29" si="5">SUM(D24:I24)</f>
+        <f t="shared" ref="K24:K29" si="6">SUM(D24:I24)</f>
         <v>143</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" ref="L23:L29" si="6">SUM(C24:I24)</f>
+        <f t="shared" ref="L24:L29" si="7">SUM(C24:I24)</f>
         <v>175</v>
       </c>
     </row>
@@ -1950,40 +1950,40 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:I25" si="7">C5+(C15*$B$21)</f>
+        <f t="shared" ref="C25:I25" si="8">C5+(C15*$B$21)</f>
         <v>26</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>181</v>
       </c>
     </row>
@@ -1993,40 +1993,40 @@
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17">
-        <f t="shared" ref="C26:I26" si="8">C6+(C16*$B$21)</f>
+        <f t="shared" ref="C26:I26" si="9">C6+(C16*$B$21)</f>
         <v>33</v>
       </c>
       <c r="D26" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E26" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="F26" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I26" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="L26" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>179</v>
       </c>
     </row>
@@ -2036,40 +2036,40 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:I27" si="9">C7+(C17*$B$21)</f>
+        <f t="shared" ref="C27:I27" si="10">C7+(C17*$B$21)</f>
         <v>28</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>179</v>
       </c>
     </row>
@@ -2079,40 +2079,40 @@
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17">
-        <f t="shared" ref="C28:I28" si="10">C8+(C18*$B$21)</f>
+        <f t="shared" ref="C28:I28" si="11">C8+(C18*$B$21)</f>
         <v>42</v>
       </c>
       <c r="D28" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="F28" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="I28" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
       <c r="L28" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
     </row>
@@ -2122,40 +2122,40 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:I29" si="11">C9+(C19*$B$21)</f>
+        <f t="shared" ref="C29:I29" si="12">C9+(C19*$B$21)</f>
         <v>37</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>189</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2224,19 +2224,19 @@
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="30">
         <v>4</v>
       </c>
       <c r="E2" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" s="30">
         <v>2</v>
       </c>
       <c r="G2" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="30">
         <v>4</v>
@@ -2249,11 +2249,11 @@
       </c>
       <c r="K2" s="30">
         <f>D2+E2+F2+G2+H2+I2+J2</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L2" s="31">
         <f>K2+C2</f>
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -2268,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="18">
         <v>7</v>
@@ -2287,11 +2287,11 @@
       </c>
       <c r="K3" s="18">
         <f t="shared" ref="K3" si="0">D3+E3+F3+G3+H3+I3+J3</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3" si="1">K3+C3</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -2309,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="18">
         <v>6</v>
@@ -2325,11 +2325,11 @@
       </c>
       <c r="K4" s="18">
         <f t="shared" ref="K4:K6" si="2">D4+E4+F4+G4+H4+I4+J4</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4" s="20">
         <f t="shared" ref="L4:L6" si="3">K4+C4</f>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -2341,10 +2341,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="18">
         <v>3</v>
@@ -2363,11 +2363,11 @@
       </c>
       <c r="K5" s="18">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5" s="20">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -2498,13 +2498,13 @@
         <v>0.8</v>
       </c>
       <c r="E10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0.8</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H10">
         <v>0.8</v>
@@ -2517,11 +2517,11 @@
       </c>
       <c r="K10" s="22">
         <f t="shared" si="4"/>
-        <v>4.8</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="L10">
-        <f>C10+D10+E10+F10+G10+H10+I10+J10</f>
-        <v>5.9999999999999991</v>
+        <f t="shared" ref="L10:L16" si="6">C10+D10+E10+F10+G10+H10+I10+J10</f>
+        <v>5.6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -2535,13 +2535,13 @@
         <v>0.6</v>
       </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F11">
         <v>1.2</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -2554,11 +2554,11 @@
       </c>
       <c r="K11" s="22">
         <f t="shared" si="4"/>
-        <v>5.3000000000000007</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L11">
-        <f>C11+D11+E11+F11+G11+H11+I11+J11</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>5.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -2572,13 +2572,13 @@
         <v>0.9</v>
       </c>
       <c r="E12">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
         <v>0.6</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2591,11 +2591,11 @@
       </c>
       <c r="K12" s="22">
         <f t="shared" si="4"/>
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L12">
-        <f>C12+D12+E12+F12+G12+H12+I12+J12</f>
-        <v>6.0000000000000009</v>
+        <f t="shared" si="6"/>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -2609,13 +2609,13 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F13">
         <v>0.6</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2628,11 +2628,11 @@
       </c>
       <c r="K13" s="22">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="L13">
-        <f>C13+D13+E13+F13+G13+H13+I13+J13</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -2646,13 +2646,13 @@
         <v>1.4</v>
       </c>
       <c r="E14">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
         <v>0.9</v>
       </c>
       <c r="G14">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0.8</v>
@@ -2665,11 +2665,11 @@
       </c>
       <c r="K14" s="22">
         <f t="shared" si="4"/>
-        <v>5.6999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="L14">
-        <f>C14+D14+E14+F14+G14+H14+I14+J14</f>
-        <v>7.7</v>
+        <f t="shared" si="6"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -2683,13 +2683,13 @@
         <v>0.8</v>
       </c>
       <c r="E15">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F15">
         <v>1.4</v>
       </c>
       <c r="G15">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="K15" s="22">
         <f t="shared" si="4"/>
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L15">
-        <f>C15+D15+E15+F15+G15+H15+I15+J15</f>
-        <v>7.7000000000000011</v>
+        <f t="shared" si="6"/>
+        <v>7.3999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -2720,13 +2720,13 @@
         <v>1.5</v>
       </c>
       <c r="E16">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1.5</v>
       </c>
       <c r="G16">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2739,11 +2739,11 @@
       </c>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L16">
-        <f>C16+D16+E16+F16+G16+H16+I16+J16</f>
-        <v>10.1</v>
+        <f t="shared" si="6"/>
+        <v>9.9</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -2760,44 +2760,44 @@
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17">
-        <f>C2+($B$18*C10)</f>
-        <v>44</v>
+        <f t="shared" ref="C19:C25" si="7">C2+($B$18*C10)</f>
+        <v>48</v>
       </c>
       <c r="D19" s="17">
-        <f t="shared" ref="D19:L19" si="6">D2+($B$18*D10)</f>
+        <f t="shared" ref="D19:L19" si="8">D2+($B$18*D10)</f>
         <v>20</v>
       </c>
       <c r="E19" s="17">
-        <f t="shared" si="6"/>
-        <v>34</v>
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="F19" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I19" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="J19" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" ref="K19" si="7">K2+($B$18*K10)</f>
-        <v>127</v>
+        <f t="shared" ref="K19" si="9">K2+($B$18*K10)</f>
+        <v>112.99999999999999</v>
       </c>
       <c r="L19" s="17">
-        <f t="shared" si="6"/>
-        <v>171</v>
+        <f t="shared" si="8"/>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -2805,44 +2805,44 @@
         <v>9</v>
       </c>
       <c r="C20" s="17">
-        <f>C3+($B$18*C11)</f>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="D20" s="17">
-        <f>D3+($B$18*D11)</f>
+        <f t="shared" ref="D20:L20" si="10">D3+($B$18*D11)</f>
         <v>14</v>
       </c>
       <c r="E20" s="17">
-        <f>E3+($B$18*E11)</f>
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="F20" s="17">
-        <f>F3+($B$18*F11)</f>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="G20" s="17">
-        <f>G3+($B$18*G11)</f>
-        <v>26</v>
+        <f t="shared" si="10"/>
+        <v>22</v>
       </c>
       <c r="H20" s="17">
-        <f>H3+($B$18*H11)</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="I20" s="17">
-        <f>I3+($B$18*I11)</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="J20" s="17">
-        <f>J3+($B$18*J11)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K20" s="17">
-        <f>K3+($B$18*K11)</f>
-        <v>137</v>
+        <f t="shared" si="10"/>
+        <v>128</v>
       </c>
       <c r="L20" s="17">
-        <f>L3+($B$18*L11)</f>
-        <v>163</v>
+        <f t="shared" si="10"/>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -2850,44 +2850,44 @@
         <v>28</v>
       </c>
       <c r="C21" s="17">
-        <f>C4+($B$18*C12)</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="D21" s="17">
-        <f>D4+($B$18*D12)</f>
+        <f t="shared" ref="D21:L21" si="11">D4+($B$18*D12)</f>
         <v>23</v>
       </c>
       <c r="E21" s="17">
-        <f>E4+($B$18*E12)</f>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="F21" s="17">
-        <f>F4+($B$18*F12)</f>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
       <c r="G21" s="17">
-        <f>G4+($B$18*G12)</f>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="H21" s="17">
-        <f>H4+($B$18*H12)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="I21" s="17">
-        <f>I4+($B$18*I12)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="J21" s="17">
-        <f>J4+($B$18*J12)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K21" s="17">
-        <f>K4+($B$18*K12)</f>
-        <v>137</v>
+        <f t="shared" si="11"/>
+        <v>127</v>
       </c>
       <c r="L21" s="17">
-        <f>L4+($B$18*L12)</f>
-        <v>168</v>
+        <f t="shared" si="11"/>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -2895,44 +2895,44 @@
         <v>29</v>
       </c>
       <c r="C22" s="17">
-        <f>C5+($B$18*C13)</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D22" s="17">
-        <f>D5+($B$18*D13)</f>
-        <v>27</v>
+        <f t="shared" ref="D22:L22" si="12">D5+($B$18*D13)</f>
+        <v>26</v>
       </c>
       <c r="E22" s="17">
-        <f>E5+($B$18*E13)</f>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="F22" s="17">
-        <f>F5+($B$18*F13)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="G22" s="17">
-        <f>G5+($B$18*G13)</f>
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H22" s="17">
-        <f>H5+($B$18*H13)</f>
-        <v>25</v>
-      </c>
-      <c r="I22" s="17">
-        <f>I5+($B$18*I13)</f>
-        <v>20</v>
-      </c>
       <c r="J22" s="17">
-        <f>J5+($B$18*J13)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K22" s="17">
-        <f>K5+($B$18*K13)</f>
-        <v>132</v>
+        <f t="shared" si="12"/>
+        <v>122.00000000000001</v>
       </c>
       <c r="L22" s="17">
-        <f>L5+($B$18*L13)</f>
-        <v>170</v>
+        <f t="shared" si="12"/>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -2940,44 +2940,44 @@
         <v>30</v>
       </c>
       <c r="C23" s="17">
-        <f>C6+($B$18*C14)</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="D23" s="17">
-        <f>D6+($B$18*D14)</f>
+        <f t="shared" ref="D23:L23" si="13">D6+($B$18*D14)</f>
         <v>38</v>
       </c>
       <c r="E23" s="17">
-        <f>E6+($B$18*E14)</f>
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="F23" s="17">
-        <f>F6+($B$18*F14)</f>
-        <v>28</v>
-      </c>
       <c r="G23" s="17">
-        <f>G6+($B$18*G14)</f>
-        <v>24</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
       <c r="H23" s="17">
-        <f>H6+($B$18*H14)</f>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="I23" s="17">
-        <f>I6+($B$18*I14)</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="J23" s="17">
-        <f>J6+($B$18*J14)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K23" s="17">
-        <f>K6+($B$18*K14)</f>
-        <v>174</v>
+        <f t="shared" si="13"/>
+        <v>170</v>
       </c>
       <c r="L23" s="17">
-        <f>L6+($B$18*L14)</f>
-        <v>244</v>
+        <f t="shared" si="13"/>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
@@ -2985,44 +2985,44 @@
         <v>31</v>
       </c>
       <c r="C24" s="17">
-        <f>C7+($B$18*C15)</f>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D24" s="17">
-        <f>D7+($B$18*D15)</f>
+        <f t="shared" ref="D24:L24" si="14">D7+($B$18*D15)</f>
         <v>26</v>
       </c>
       <c r="E24" s="17">
-        <f>E7+($B$18*E15)</f>
-        <v>26</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="F24" s="17">
-        <f>F7+($B$18*F15)</f>
+        <f t="shared" si="14"/>
         <v>38</v>
       </c>
       <c r="G24" s="17">
-        <f>G7+($B$18*G15)</f>
-        <v>28</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="H24" s="17">
-        <f>H7+($B$18*H15)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="I24" s="17">
-        <f>I7+($B$18*I15)</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="J24" s="17">
-        <f>J7+($B$18*J15)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K24" s="17">
-        <f>K7+($B$18*K15)</f>
-        <v>178</v>
+        <f t="shared" si="14"/>
+        <v>172</v>
       </c>
       <c r="L24" s="17">
-        <f>L7+($B$18*L15)</f>
-        <v>244.00000000000003</v>
+        <f t="shared" si="14"/>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
@@ -3030,49 +3030,50 @@
         <v>32</v>
       </c>
       <c r="C25" s="17">
-        <f>C8+($B$18*C16)</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D25" s="17">
-        <f>D8+($B$18*D16)</f>
+        <f t="shared" ref="D25:L25" si="15">D8+($B$18*D16)</f>
         <v>45</v>
       </c>
       <c r="E25" s="17">
-        <f>E8+($B$18*E16)</f>
-        <v>37</v>
+        <f t="shared" si="15"/>
+        <v>35</v>
       </c>
       <c r="F25" s="17">
-        <f>F8+($B$18*F16)</f>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="G25" s="17">
-        <f>G8+($B$18*G16)</f>
-        <v>37</v>
+        <f t="shared" si="15"/>
+        <v>35</v>
       </c>
       <c r="H25" s="17">
-        <f>H8+($B$18*H16)</f>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="I25" s="17">
-        <f>I8+($B$18*I16)</f>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="J25" s="17">
-        <f>J8+($B$18*J16)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K25" s="17">
-        <f>K8+($B$18*K16)</f>
-        <v>243</v>
+        <f t="shared" si="15"/>
+        <v>239</v>
       </c>
       <c r="L25" s="17">
-        <f>L8+($B$18*L16)</f>
-        <v>333</v>
+        <f t="shared" si="15"/>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3080,9 +3081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3129,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3151,17 +3152,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="D3" s="17">
+        <v>2</v>
+      </c>
       <c r="E3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="36"/>
     </row>
@@ -3174,14 +3177,14 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3196,7 +3199,7 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -3214,14 +3217,14 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="36"/>
     </row>
@@ -3234,7 +3237,7 @@
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -3252,7 +3255,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3272,13 +3275,13 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="36"/>
@@ -3292,7 +3295,7 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3311,7 +3314,9 @@
         <v>1</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -3331,17 +3336,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="22">
+        <v>2</v>
+      </c>
       <c r="E12" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="36"/>
     </row>
@@ -3354,7 +3361,7 @@
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -3374,13 +3381,13 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -3397,13 +3404,13 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17">
+        <v>4</v>
+      </c>
+      <c r="H15" s="17">
         <v>3</v>
       </c>
-      <c r="H15" s="17">
-        <v>2</v>
-      </c>
       <c r="I15" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="36"/>
     </row>
@@ -3416,7 +3423,7 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -3436,7 +3443,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -3453,13 +3460,13 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -3495,11 +3502,11 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -3516,7 +3523,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -3571,7 +3578,9 @@
         <v>1</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="17">
+        <v>0.1</v>
+      </c>
       <c r="E25" s="17">
         <v>0.1</v>
       </c>
@@ -3982,15 +3991,15 @@
       </c>
       <c r="C47" s="2">
         <f>C2+($B$46*C24)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" ref="D47:J47" si="0">D2+($B$46*D24)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="0"/>
@@ -4026,11 +4035,11 @@
       </c>
       <c r="D48" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E48" s="17">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="17">
         <f t="shared" si="1"/>
@@ -4042,11 +4051,11 @@
       </c>
       <c r="H48" s="17">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I48" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J48" s="36">
         <f t="shared" si="1"/>
@@ -4066,11 +4075,11 @@
       </c>
       <c r="D49" s="17">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F49" s="17">
         <f t="shared" si="2"/>
@@ -4078,7 +4087,7 @@
       </c>
       <c r="G49" s="17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="2"/>
@@ -4106,7 +4115,7 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="3"/>
@@ -4146,7 +4155,7 @@
       </c>
       <c r="D51" s="17">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E51" s="17">
         <f t="shared" si="4"/>
@@ -4166,7 +4175,7 @@
       </c>
       <c r="I51" s="17">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J51" s="36">
         <f t="shared" si="4"/>
@@ -4186,7 +4195,7 @@
       </c>
       <c r="D52" s="17">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E52" s="17">
         <f t="shared" si="5"/>
@@ -4226,7 +4235,7 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="6"/>
@@ -4266,7 +4275,7 @@
       </c>
       <c r="D54" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E54" s="17">
         <f t="shared" si="7"/>
@@ -4282,7 +4291,7 @@
       </c>
       <c r="H54" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I54" s="17">
         <f t="shared" si="7"/>
@@ -4306,7 +4315,7 @@
       </c>
       <c r="D55" s="17">
         <f t="shared" si="8"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E55" s="17">
         <f t="shared" si="8"/>
@@ -4346,7 +4355,7 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="9"/>
@@ -4386,11 +4395,11 @@
       </c>
       <c r="D57" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="17">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57" s="17">
         <f t="shared" si="10"/>
@@ -4398,7 +4407,7 @@
       </c>
       <c r="G57" s="17">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="10"/>
@@ -4406,7 +4415,7 @@
       </c>
       <c r="I57" s="17">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J57" s="36">
         <f t="shared" si="10"/>
@@ -4426,7 +4435,7 @@
       </c>
       <c r="D58" s="5">
         <f t="shared" si="11"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="11"/>
@@ -4466,7 +4475,7 @@
       </c>
       <c r="D59" s="17">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E59" s="17">
         <f t="shared" si="12"/>
@@ -4482,7 +4491,7 @@
       </c>
       <c r="H59" s="17">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I59" s="17">
         <f t="shared" si="12"/>
@@ -4518,15 +4527,15 @@
       </c>
       <c r="G60" s="17">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I60" s="17">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J60" s="36">
         <f t="shared" si="13"/>
@@ -4546,7 +4555,7 @@
       </c>
       <c r="D61" s="5">
         <f t="shared" si="14"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="14"/>
@@ -4594,7 +4603,7 @@
       </c>
       <c r="F62" s="17">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G62" s="17">
         <f t="shared" si="15"/>
@@ -4630,15 +4639,15 @@
       </c>
       <c r="E63" s="17">
         <f t="shared" si="16"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" s="17">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="17">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="16"/>
@@ -4710,7 +4719,7 @@
       </c>
       <c r="E65" s="17">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="17">
         <f t="shared" si="18"/>
@@ -4718,7 +4727,7 @@
       </c>
       <c r="G65" s="17">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="18"/>
@@ -4754,7 +4763,7 @@
       </c>
       <c r="F66" s="17">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66" s="17">
         <f t="shared" si="19"/>
@@ -4823,7 +4832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>

--- a/仕様書/キャラステータス.xlsx
+++ b/仕様書/キャラステータス.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -1157,9 +1157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1213,13 +1213,13 @@
         <v>25</v>
       </c>
       <c r="D2" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
         <v>4</v>
@@ -1235,11 +1235,11 @@
       </c>
       <c r="K2" s="2">
         <f>D2+E2+F2+G2+H2+I2+J2</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L2" s="11">
         <f>K2+C2</f>
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1253,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
         <v>8</v>
       </c>
       <c r="F3" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3" s="5">
         <v>3</v>
@@ -1275,11 +1275,11 @@
       </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K9" si="0">D3+E3+F3+G3+H3+I3+J3</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L3" s="13">
         <f t="shared" ref="L3:L9" si="1">K3+C3</f>
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1293,16 +1293,16 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -1315,11 +1315,11 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L4" s="11">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1333,16 +1333,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>3</v>
       </c>
       <c r="F5" s="5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
         <v>8</v>
-      </c>
-      <c r="G5" s="5">
-        <v>7</v>
       </c>
       <c r="H5" s="5">
         <v>6</v>
@@ -1355,11 +1355,11 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L5" s="13">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1373,13 +1373,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -1395,11 +1395,11 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L6" s="11">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1413,13 +1413,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
       </c>
       <c r="F7" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5">
         <v>5</v>
@@ -1435,11 +1435,11 @@
       </c>
       <c r="K7" s="5">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -1453,13 +1453,13 @@
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2">
         <v>4</v>
@@ -1475,11 +1475,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1493,13 +1493,13 @@
         <v>15</v>
       </c>
       <c r="D9" s="15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9" s="15">
         <v>4</v>
       </c>
       <c r="F9" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="15">
         <v>3</v>
@@ -1515,11 +1515,11 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ref="D22:I22" si="3">D2+(D12*$B$21)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="3"/>
@@ -1851,11 +1851,11 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2">
         <f>SUM(D22:I22)</f>
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L22" s="3">
         <f>SUM(C22:I22)</f>
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D23" s="17">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E23" s="17">
         <f t="shared" si="4"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F23" s="17">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" si="4"/>
@@ -1894,11 +1894,11 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17">
         <f>SUM(D23:I23)</f>
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L23" s="36">
         <f>SUM(C23:I23)</f>
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="5"/>
@@ -1920,11 +1920,11 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="5"/>
@@ -1937,11 +1937,11 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <f t="shared" ref="K24:K29" si="6">SUM(D24:I24)</f>
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" ref="L24:L29" si="7">SUM(C24:I24)</f>
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="8"/>
@@ -1963,11 +1963,11 @@
       </c>
       <c r="F25" s="5">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="8"/>
@@ -1980,11 +1980,11 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5">
         <f t="shared" si="6"/>
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="7"/>
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D26" s="17">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E26" s="17">
         <f t="shared" si="9"/>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F26" s="17">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G26" s="17">
         <f t="shared" si="9"/>
@@ -2023,11 +2023,11 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17">
         <f t="shared" si="6"/>
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L26" s="36">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="10"/>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="10"/>
@@ -2066,11 +2066,11 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="7"/>
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D28" s="17">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E28" s="17">
         <f t="shared" si="11"/>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="F28" s="17">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G28" s="17">
         <f t="shared" si="11"/>
@@ -2109,11 +2109,11 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17">
         <f t="shared" si="6"/>
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L28" s="36">
         <f t="shared" si="7"/>
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="12"/>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" si="12"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="12"/>
@@ -2152,11 +2152,11 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5">
         <f t="shared" si="6"/>
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="7"/>
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
@@ -2175,7 +2175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3081,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>

--- a/仕様書/キャラステータス.xlsx
+++ b/仕様書/キャラステータス.xlsx
@@ -1159,7 +1159,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2175,7 +2175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="C2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" s="30">
         <v>4</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="L2" s="31">
         <f>K2+C2</f>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="18">
         <v>2</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3" si="1">K3+C3</f>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="18">
         <v>5</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="L4" s="20">
         <f t="shared" ref="L4:L6" si="3">K4+C4</f>
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="18">
         <v>6</v>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="L5" s="20">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -2761,7 +2761,7 @@
       <c r="B19" s="17"/>
       <c r="C19" s="17">
         <f t="shared" ref="C19:C25" si="7">C2+($B$18*C10)</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" ref="D19:L19" si="8">D2+($B$18*D10)</f>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="L19" s="17">
         <f t="shared" si="8"/>
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C20" s="17">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" ref="D20:L20" si="10">D3+($B$18*D11)</f>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="L20" s="17">
         <f t="shared" si="10"/>
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C21" s="17">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" ref="D21:L21" si="11">D4+($B$18*D12)</f>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="L21" s="17">
         <f t="shared" si="11"/>
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C22" s="17">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" ref="D22:L22" si="12">D5+($B$18*D13)</f>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="L22" s="17">
         <f t="shared" si="12"/>
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
